--- a/101/101.xlsx
+++ b/101/101.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>No.</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>session08</t>
   </si>
 </sst>
 </file>
@@ -374,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +390,7 @@
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -403,8 +406,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -420,8 +426,11 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -437,8 +446,11 @@
       <c r="E3" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -454,8 +466,11 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -471,8 +486,11 @@
       <c r="E5" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -488,8 +506,11 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -503,6 +524,9 @@
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/101/101.xlsx
+++ b/101/101.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>No.</t>
   </si>
@@ -41,10 +41,40 @@
     <t>session06</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>session08</t>
+  </si>
+  <si>
+    <t>session12</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Total Points</t>
+  </si>
+  <si>
+    <t>25+</t>
+  </si>
+  <si>
+    <t>20+</t>
+  </si>
+  <si>
+    <t>15+</t>
+  </si>
+  <si>
+    <t>10+</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>h.total</t>
+  </si>
+  <si>
+    <t>h.final</t>
+  </si>
+  <si>
+    <t>Final Score</t>
   </si>
 </sst>
 </file>
@@ -60,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,6 +100,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -86,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -95,6 +137,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -377,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,9 +439,10 @@
     <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -407,31 +459,37 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -446,36 +504,42 @@
       <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+      <c r="B5" s="3">
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -489,9 +553,12 @@
       <c r="F5" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>6</v>
       </c>
       <c r="B6" s="1">
@@ -509,9 +576,12 @@
       <c r="F6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -520,17 +590,188 @@
       <c r="C7" s="1">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f>B2+C2+D2+E2+F2+G2</f>
+        <v>28.5</v>
+      </c>
+      <c r="C12">
+        <f>(B12*40)/B8</f>
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <f>29+E12</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>B3+C3+D3+E3</f>
+        <v>32.5</v>
+      </c>
+      <c r="C13">
+        <f>(B13*40)/B8</f>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>C13+20+E13</f>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <f>B4+F4</f>
+        <v>7.5</v>
+      </c>
+      <c r="C14">
+        <f>(B14*40)/B8</f>
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>C14+E14</f>
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>5</v>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <f>C5+D5+E5+F5</f>
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <f>(B15*40)/B8</f>
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>55</v>
+      </c>
+      <c r="F15">
+        <f>C15+15+E15</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <f>B6+C6+D6+E6+F6</f>
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <f>(B16*40)/B8</f>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <f>C16+25+E16</f>
+        <v>105.66666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <f>B7+C7</f>
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <f>(B17*40)/B8</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <f>C17+E17</f>
+        <v>59.333333333333336</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>